--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>Functions and Arrays</t>
+  </si>
+  <si>
+    <t>Media Query</t>
+  </si>
+  <si>
+    <t>Transform, Transition, Animation</t>
+  </si>
+  <si>
+    <t>Flex, Grid</t>
+  </si>
+  <si>
+    <t>:root</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Git installation, GitHub Overview</t>
+  </si>
+  <si>
+    <t>Datatypes, Operators, DOM Overview</t>
+  </si>
+  <si>
+    <t>Loops: while, for, do-while; various types of functions</t>
+  </si>
+  <si>
+    <t>Function, Array methods &amp; properties</t>
   </si>
 </sst>
 </file>
@@ -571,7 +598,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +874,9 @@
       <c r="D17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -860,7 +889,9 @@
       <c r="D18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -873,7 +904,9 @@
       <c r="D19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
@@ -886,7 +919,9 @@
       <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -899,7 +934,9 @@
       <c r="D21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
@@ -925,7 +962,9 @@
       <c r="D23" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -938,18 +977,24 @@
       <c r="D24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="6">
         <v>45343</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Class Status</t>
   </si>
@@ -183,10 +183,28 @@
     <t>Objects and Events</t>
   </si>
   <si>
-    <t>Objects</t>
-  </si>
-  <si>
     <t>[PROJECT] - Micro Project 2</t>
+  </si>
+  <si>
+    <t>Objects, Iterate through Objects, Nested Objects, Time Events</t>
+  </si>
+  <si>
+    <t>Understanding DOM</t>
+  </si>
+  <si>
+    <t>Closures + lev, var and cons</t>
+  </si>
+  <si>
+    <t>Micro Project 1 - Solution</t>
+  </si>
+  <si>
+    <t>DOM, Event Handling, Event Propogation, strict, pop-ups</t>
+  </si>
+  <si>
+    <t>let, var, const, self invoking function, closure</t>
+  </si>
+  <si>
+    <t>Constructors &amp; Prototypes</t>
   </si>
 </sst>
 </file>
@@ -215,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +293,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -314,11 +344,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -371,6 +455,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -680,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,13 +1230,13 @@
         <v>52</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1142,61 +1244,75 @@
         <v>45345</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="6">
         <v>45346</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="6">
         <v>45347</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="6">
         <v>45348</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="6">
         <v>45349</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="24"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
@@ -1209,7 +1325,7 @@
         <v>45350</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
@@ -1488,5 +1604,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -201,17 +201,37 @@
     <t>DOM, Event Handling, Event Propogation, strict, pop-ups</t>
   </si>
   <si>
-    <t>let, var, const, self invoking function, closure</t>
-  </si>
-  <si>
     <t>Constructors &amp; Prototypes</t>
+  </si>
+  <si>
+    <t>Prototypes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let, var, const, self invoking function, closure, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arrow Function</t>
+    </r>
+  </si>
+  <si>
+    <t>this keyword, constuctor function, call, apply, bind</t>
+  </si>
+  <si>
+    <t>prototype, class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +249,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -402,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,6 +499,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -782,8 +811,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1124,7 @@
       <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="3"/>
@@ -1296,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1310,22 +1339,28 @@
         <v>45349</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="6">
         <v>45350</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Class Status</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>prototype, class</t>
+  </si>
+  <si>
+    <t>promise, promise chaning, fetch</t>
+  </si>
+  <si>
+    <t>jquery introduction</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>Promises</t>
   </si>
 </sst>
 </file>
@@ -812,7 +824,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,28 +1377,36 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="6">
         <v>45351</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="6">
         <v>45352</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Class Status</t>
   </si>
@@ -207,11 +207,43 @@
     <t>Prototypes</t>
   </si>
   <si>
+    <t>this keyword, constuctor function, call, apply, bind</t>
+  </si>
+  <si>
+    <t>prototype, class</t>
+  </si>
+  <si>
+    <t>promise, promise chaning, fetch</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>[PROJECT] - Micro Project 2 - Solution</t>
+  </si>
+  <si>
+    <t>Micro Project 2 - Solution</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">let, var, const, self invoking function, closure, </t>
+      <t>let, var, const, self invoking function, closure,</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
@@ -221,29 +253,14 @@
     </r>
   </si>
   <si>
-    <t>this keyword, constuctor function, call, apply, bind</t>
-  </si>
-  <si>
-    <t>prototype, class</t>
-  </si>
-  <si>
-    <t>promise, promise chaning, fetch</t>
-  </si>
-  <si>
-    <t>jquery introduction</t>
-  </si>
-  <si>
-    <t>jQuery</t>
-  </si>
-  <si>
-    <t>Promises</t>
+    <t>jQuery introduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +282,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
@@ -440,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -514,6 +545,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -823,8 +857,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +972,7 @@
       <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -1337,7 +1371,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1354,7 +1388,7 @@
         <v>59</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1371,7 +1405,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1385,10 +1419,10 @@
         <v>45351</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1402,36 +1436,42 @@
         <v>45352</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="6">
         <v>45353</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="6">
         <v>45354</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>jQuery introduction</t>
+  </si>
+  <si>
+    <t>async, await, try, catch, throw</t>
+  </si>
+  <si>
+    <t>Async and Await</t>
+  </si>
+  <si>
+    <t>[PROJECT] - Micro Project 3</t>
   </si>
 </sst>
 </file>
@@ -857,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,27 +1486,33 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="6">
         <v>45355</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="6">
         <v>45356</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -867,7 +867,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,14 +1518,16 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="6">
         <v>45357</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -867,7 +867,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,14 +1533,16 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="6">
         <v>45358</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -867,7 +867,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,14 +1548,16 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="6">
         <v>45359</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>[PROJECT] - Micro Project 3</t>
+  </si>
+  <si>
+    <t>JavaScript Module Test</t>
+  </si>
+  <si>
+    <t>Create Stone, Paper, Scissors</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,15 +1569,19 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="6">
         <v>45360</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -872,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,14 +1586,16 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="6">
         <v>45361</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,14 +1601,16 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="6">
         <v>45362</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,14 +1616,16 @@
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="6">
         <v>45363</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,27 +1631,31 @@
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="6">
         <v>45364</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="6">
         <v>45365</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -872,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,14 +1661,16 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="6">
         <v>45366</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,14 +1676,16 @@
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="6">
         <v>45367</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1691,14 +1691,16 @@
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="6">
         <v>45368</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>Class Status</t>
   </si>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,27 +1706,31 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="6">
         <v>45369</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="6">
         <v>45370</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Class Status</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Create Stone, Paper, Scissors</t>
+  </si>
+  <si>
+    <t>JavaScript Revision</t>
+  </si>
+  <si>
+    <t>https://bigfrontend.dev/quiz/</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1743,8 +1749,12 @@
       <c r="C53" s="6">
         <v>45371</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>Class Status</t>
   </si>
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -569,6 +569,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -876,10 +894,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,36 +1745,159 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="29">
         <v>45370</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="5"/>
+      <c r="D52" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="22"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="32">
         <v>45371</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="28"/>
+      <c r="B54" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="32">
+        <v>45372</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="32">
+        <v>45373</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="32">
+        <v>45374</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="32">
+        <v>45375</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="32">
+        <v>45376</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="32">
+        <v>45377</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="32">
+        <v>45378</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="32">
+        <v>45379</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="32">
+        <v>45380</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="32">
+        <v>45381</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="32">
+        <v>45382</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>Class Status</t>
   </si>
@@ -896,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,14 +1801,16 @@
       <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="32">
         <v>45374</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>Class Status</t>
   </si>
@@ -897,7 +897,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,14 +1814,16 @@
       <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="32">
         <v>45375</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>Class Status</t>
   </si>
@@ -897,7 +897,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,14 +1827,16 @@
       <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="32">
         <v>45376</v>
       </c>
-      <c r="D58" s="24"/>
+      <c r="D58" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
   <si>
     <t>Class Status</t>
   </si>
@@ -271,17 +271,29 @@
     <t>Create Stone, Paper, Scissors</t>
   </si>
   <si>
-    <t>JavaScript Revision</t>
-  </si>
-  <si>
     <t>https://bigfrontend.dev/quiz/</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>JavaScript Revision 1</t>
+  </si>
+  <si>
+    <t>JavaScript Revision 2</t>
+  </si>
+  <si>
+    <t>React Module Introduction</t>
+  </si>
+  <si>
+    <t>React, node Installation, First Component Creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +334,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -587,6 +612,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -896,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +947,7 @@
     <col min="2" max="2" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -1061,10 +1102,10 @@
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -1077,11 +1118,13 @@
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1523,7 +1566,7 @@
       <c r="C37" s="6">
         <v>45355</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1768,10 +1811,10 @@
         <v>45371</v>
       </c>
       <c r="D53" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>75</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1790,14 +1833,16 @@
       <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="32">
         <v>45373</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1840,15 +1885,19 @@
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="32">
         <v>45377</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="D59" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>Class Status</t>
   </si>
@@ -938,7 +938,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,14 +1900,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="32">
         <v>45378</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>Class Status</t>
   </si>
@@ -938,7 +938,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,14 +1935,16 @@
       <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="32">
         <v>45381</v>
       </c>
-      <c r="D63" s="24"/>
+      <c r="D63" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="E63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Cuvette MERN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Cuvette MERN'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cuvette MERN'!$A$1:$F$64</definedName>
   </definedNames>
   <calcPr calcId="52"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="87">
   <si>
     <t>Class Status</t>
   </si>
@@ -288,12 +288,30 @@
   <si>
     <t>React, node Installation, First Component Creation</t>
   </si>
+  <si>
+    <t>Displaying Data, Adding Styles, Conditional Rendering, Rendering Lists, Fragments</t>
+  </si>
+  <si>
+    <t>Props, Re-usable components using props, States intro using hooks, Event Handling</t>
+  </si>
+  <si>
+    <t>Forms (Controlled Components), Validations, Async state updates</t>
+  </si>
+  <si>
+    <t>Class Components</t>
+  </si>
+  <si>
+    <t>Component Life cycle and methods</t>
+  </si>
+  <si>
+    <t>Lifecycle Methods &amp; Uncontrolled Components</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +351,6 @@
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -421,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -513,11 +524,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,7 +651,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -935,10 +971,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +982,7 @@
     <col min="1" max="1" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
@@ -1885,7 +1921,7 @@
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="31" t="s">
         <v>7</v>
       </c>
@@ -1920,45 +1956,396 @@
       <c r="C61" s="32">
         <v>45379</v>
       </c>
-      <c r="D61" s="24"/>
+      <c r="D61" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="32">
         <v>45380</v>
       </c>
-      <c r="D62" s="24"/>
+      <c r="D62" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="40">
         <v>45381</v>
       </c>
       <c r="D63" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="24"/>
+      <c r="E63" s="41"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="32">
         <v>45382</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E64" s="24"/>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="32">
+        <v>45383</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="42"/>
+      <c r="B66" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="32">
+        <v>45384</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="32">
+        <v>45385</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="32">
+        <v>45386</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="24"/>
+      <c r="B69" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="32">
+        <v>45387</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="32">
+        <v>45388</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="28"/>
+      <c r="B71" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="32">
+        <v>45389</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="24"/>
+      <c r="B72" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="32">
+        <v>45390</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="24"/>
+      <c r="B73" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="32">
+        <v>45391</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="24"/>
+      <c r="B74" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="32">
+        <v>45392</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="24"/>
+      <c r="B75" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="32">
+        <v>45393</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="24"/>
+      <c r="B76" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="32">
+        <v>45394</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
+      <c r="B77" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="32">
+        <v>45395</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="24"/>
+      <c r="B78" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="32">
+        <v>45396</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
+      <c r="B79" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="32">
+        <v>45397</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="24"/>
+      <c r="B80" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="32">
+        <v>45398</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="24"/>
+      <c r="B81" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="32">
+        <v>45399</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="24"/>
+      <c r="B82" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="32">
+        <v>45400</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="24"/>
+      <c r="B83" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="32">
+        <v>45401</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="24"/>
+      <c r="B84" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="32">
+        <v>45402</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="24"/>
+      <c r="B85" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="32">
+        <v>45403</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="24"/>
+      <c r="B86" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="32">
+        <v>45404</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="24"/>
+      <c r="B87" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="32">
+        <v>45405</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="32">
+        <v>45406</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="24"/>
+      <c r="B89" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="32">
+        <v>45407</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="24"/>
+      <c r="B90" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="32">
+        <v>45408</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="32">
+        <v>45409</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="24"/>
+      <c r="B92" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="32">
+        <v>45410</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="24"/>
+      <c r="B93" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="32">
+        <v>45411</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="32">
+        <v>45412</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -973,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1921,7 @@
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="31" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="31" t="s">
         <v>13</v>
       </c>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
   <si>
     <t>Class Status</t>
   </si>
@@ -295,16 +295,7 @@
     <t>Props, Re-usable components using props, States intro using hooks, Event Handling</t>
   </si>
   <si>
-    <t>Forms (Controlled Components), Validations, Async state updates</t>
-  </si>
-  <si>
-    <t>Class Components</t>
-  </si>
-  <si>
-    <t>Component Life cycle and methods</t>
-  </si>
-  <si>
-    <t>Lifecycle Methods &amp; Uncontrolled Components</t>
+    <t>Props, Re-use, States, Hooks(useState), Events</t>
   </si>
 </sst>
 </file>
@@ -973,8 +964,8 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2001,7 +1992,7 @@
       <c r="E64" s="24"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="31" t="s">
         <v>5</v>
       </c>
@@ -2011,7 +2002,9 @@
       <c r="D65" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="24"/>
+      <c r="E65" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="42"/>
@@ -2034,9 +2027,7 @@
       <c r="C67" s="32">
         <v>45385</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>83</v>
-      </c>
+      <c r="D67" s="24"/>
       <c r="E67" s="24"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,9 +2038,7 @@
       <c r="C68" s="32">
         <v>45386</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="D68" s="24"/>
       <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2060,9 +2049,7 @@
       <c r="C69" s="32">
         <v>45387</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>85</v>
-      </c>
+      <c r="D69" s="24"/>
       <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,9 +2060,7 @@
       <c r="C70" s="32">
         <v>45388</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>86</v>
-      </c>
+      <c r="D70" s="24"/>
       <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>Class Status</t>
   </si>
@@ -297,12 +297,51 @@
   <si>
     <t>Props, Re-use, States, Hooks(useState), Events</t>
   </si>
+  <si>
+    <t>Component Life cycle and methods (useEffect), Sharing data b/w components, HOC</t>
+  </si>
+  <si>
+    <t>Forms (Controlled Components), Validations, Async state updates</t>
+  </si>
+  <si>
+    <t>Class Components</t>
+  </si>
+  <si>
+    <t>Uncontrolled Components and Lifecycle Methods</t>
+  </si>
+  <si>
+    <t>Component Life Cycle &amp; its methods, HOC, Sharing data within components</t>
+  </si>
+  <si>
+    <t>Forms validation</t>
+  </si>
+  <si>
+    <t>Working with npm packages, React router</t>
+  </si>
+  <si>
+    <t>Callbacks, Callback hell</t>
+  </si>
+  <si>
+    <t>Hooks, Redux, React Redux Intro</t>
+  </si>
+  <si>
+    <t>Redux Continued</t>
+  </si>
+  <si>
+    <t>SASS and SCSS</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>Tailwind CSS w/ Project</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +381,13 @@
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -532,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -657,6 +703,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,8 +1014,8 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1919,7 +1969,7 @@
       <c r="C59" s="32">
         <v>45377</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="45" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -1947,7 +1997,7 @@
       <c r="C61" s="32">
         <v>45379</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="45" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="24"/>
@@ -1999,7 +2049,7 @@
       <c r="C65" s="32">
         <v>45383</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="45" t="s">
         <v>82</v>
       </c>
       <c r="E65" s="24" t="s">
@@ -2020,47 +2070,59 @@
       <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="24"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="32">
         <v>45385</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
+      <c r="D67" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="24"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="32">
         <v>45386</v>
       </c>
-      <c r="D68" s="24"/>
+      <c r="D68" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="32">
         <v>45387</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+      <c r="D69" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="32">
         <v>45388</v>
       </c>
-      <c r="D70" s="24"/>
+      <c r="D70" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2077,157 +2139,185 @@
       <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="32">
         <v>45390</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="45" t="s">
+        <v>90</v>
+      </c>
       <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="32">
         <v>45391</v>
       </c>
-      <c r="D73" s="24"/>
+      <c r="D73" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="E73" s="24"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="32">
         <v>45392</v>
       </c>
-      <c r="D74" s="24"/>
+      <c r="D74" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="24"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="32">
         <v>45393</v>
       </c>
-      <c r="D75" s="24"/>
+      <c r="D75" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E75" s="24"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="24"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="32">
         <v>45394</v>
       </c>
-      <c r="D76" s="24"/>
+      <c r="D76" s="45" t="s">
+        <v>91</v>
+      </c>
       <c r="E76" s="24"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="24"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="32">
         <v>45395</v>
       </c>
-      <c r="D77" s="24"/>
+      <c r="D77" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="32">
         <v>45396</v>
       </c>
-      <c r="D78" s="24"/>
+      <c r="D78" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="32">
         <v>45397</v>
       </c>
-      <c r="D79" s="24"/>
+      <c r="D79" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="32">
         <v>45398</v>
       </c>
-      <c r="D80" s="24"/>
+      <c r="D80" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="24"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="32">
         <v>45399</v>
       </c>
-      <c r="D81" s="24"/>
+      <c r="D81" s="45" t="s">
+        <v>93</v>
+      </c>
       <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="24"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="32">
         <v>45400</v>
       </c>
-      <c r="D82" s="24"/>
+      <c r="D82" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E82" s="24"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="24"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="32">
         <v>45401</v>
       </c>
-      <c r="D83" s="24"/>
+      <c r="D83" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="24"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="32">
         <v>45402</v>
       </c>
-      <c r="D84" s="24"/>
+      <c r="D84" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="24"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="32">
         <v>45403</v>
       </c>
-      <c r="D85" s="24"/>
+      <c r="D85" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="105">
   <si>
     <t>Class Status</t>
   </si>
@@ -336,12 +336,36 @@
   <si>
     <t>Tailwind CSS w/ Project</t>
   </si>
+  <si>
+    <t>React Capstone Project Part 1</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 2</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 3</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 4</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 5</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 6</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 7</t>
+  </si>
+  <si>
+    <t>React Capstone Project Part 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,12 +383,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -654,9 +672,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -706,7 +721,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,14 +1032,14 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1182,7 +1200,7 @@
       <c r="F9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -1195,13 +1213,13 @@
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1329,7 +1347,7 @@
       <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="3"/>
@@ -1614,7 +1632,7 @@
       <c r="D35" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="3"/>
@@ -1865,14 +1883,14 @@
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="28">
         <v>45370</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="22"/>
@@ -1880,96 +1898,96 @@
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <v>45371</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="31">
         <v>45372</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="31">
         <v>45373</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="30" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="31">
         <v>45374</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="31">
         <v>45375</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="31">
         <v>45376</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="31">
         <v>45377</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="44" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -1977,79 +1995,79 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="31" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="31">
         <v>45378</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="31" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="31">
         <v>45379</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="44" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>45380</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
-      <c r="B63" s="39" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <v>45381</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="41"/>
+      <c r="D63" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="31">
         <v>45382</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="24"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
-      <c r="B65" s="31" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="31">
         <v>45383</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="44" t="s">
         <v>82</v>
       </c>
       <c r="E65" s="24" t="s">
@@ -2057,27 +2075,27 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="31" t="s">
+      <c r="A66" s="41"/>
+      <c r="B66" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="31">
         <v>45384</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="38"/>
-      <c r="B67" s="31" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="31">
         <v>45385</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="44" t="s">
         <v>85</v>
       </c>
       <c r="E67" s="24" t="s">
@@ -2085,27 +2103,27 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
-      <c r="B68" s="31" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="31">
         <v>45386</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="44" t="s">
         <v>86</v>
       </c>
       <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="38"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="31">
         <v>45387</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="44" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="24" t="s">
@@ -2113,314 +2131,331 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
-      <c r="B70" s="31" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="31">
         <v>45388</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="44" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
-      <c r="B71" s="31" t="s">
+      <c r="A71" s="27"/>
+      <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="31">
         <v>45389</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="31">
         <v>45390</v>
       </c>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="44" t="s">
         <v>90</v>
       </c>
       <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="31" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="31">
         <v>45391</v>
       </c>
-      <c r="D73" s="45" t="s">
+      <c r="D73" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E73" s="24"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="31" t="s">
+      <c r="A74" s="27"/>
+      <c r="B74" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="31">
         <v>45392</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="31" t="s">
+      <c r="A75" s="27"/>
+      <c r="B75" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="31">
         <v>45393</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="24"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="31" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="31">
         <v>45394</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>91</v>
       </c>
       <c r="E76" s="24"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="31" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="31">
         <v>45395</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="44" t="s">
         <v>94</v>
       </c>
       <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
-      <c r="B78" s="31" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="31">
         <v>45396</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="38"/>
-      <c r="B79" s="31" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="31">
         <v>45397</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="44" t="s">
         <v>92</v>
       </c>
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="31" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="31">
         <v>45398</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
-      <c r="B81" s="31" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="31">
         <v>45399</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="44" t="s">
         <v>93</v>
       </c>
       <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="31" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="31">
         <v>45400</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="42" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="24"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="31" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="31">
         <v>45401</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="27"/>
+      <c r="B84" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="31">
+        <v>45402</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="24"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="27"/>
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="31">
+        <v>45403</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="24"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="37"/>
+      <c r="B86" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="31">
+        <v>45404</v>
+      </c>
+      <c r="D86" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
-      <c r="B84" s="31" t="s">
+      <c r="E86" s="24"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="37"/>
+      <c r="B87" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="31">
+        <v>45405</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="37"/>
+      <c r="B88" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="31">
+        <v>45406</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="37"/>
+      <c r="B89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="31">
+        <v>45407</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="37"/>
+      <c r="B90" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="31">
+        <v>45408</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="37"/>
+      <c r="B91" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="32">
-        <v>45402</v>
-      </c>
-      <c r="D84" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="24"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
-      <c r="B85" s="31" t="s">
+      <c r="C91" s="31">
+        <v>45409</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="32">
-        <v>45403</v>
-      </c>
-      <c r="D85" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="31" t="s">
+      <c r="C92" s="31">
+        <v>45410</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="37"/>
+      <c r="B93" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="32">
-        <v>45404</v>
-      </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="32">
-        <v>45405</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="32">
-        <v>45406</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="32">
-        <v>45407</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="32">
-        <v>45408</v>
-      </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="32">
-        <v>45409</v>
-      </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="24"/>
-      <c r="B92" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="32">
-        <v>45410</v>
-      </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="24"/>
-      <c r="B93" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="32">
+      <c r="C93" s="31">
         <v>45411</v>
       </c>
-      <c r="D93" s="24"/>
+      <c r="D93" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="24"/>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="31">
         <v>45412</v>
       </c>
-      <c r="D94" s="24"/>
+      <c r="D94" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="E94" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
   <si>
     <t>Class Status</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>React Capstone Project Part 7</t>
-  </si>
-  <si>
-    <t>React Capstone Project Part 8</t>
   </si>
 </sst>
 </file>
@@ -1030,19 +1027,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -2144,7 +2141,7 @@
       <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -2183,7 +2180,7 @@
       <c r="E73" s="24"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="30" t="s">
         <v>10</v>
       </c>
@@ -2196,7 +2193,7 @@
       <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="30" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2232,7 @@
       <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
       </c>
@@ -2261,7 +2258,7 @@
       <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="30" t="s">
         <v>7</v>
       </c>
@@ -2287,7 +2284,7 @@
       <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="30" t="s">
         <v>13</v>
       </c>
@@ -2313,7 +2310,7 @@
       <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="30" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2323,7 @@
       <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
       </c>
@@ -2359,7 +2356,7 @@
       <c r="C87" s="31">
         <v>45405</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="44" t="s">
         <v>97</v>
       </c>
       <c r="E87" s="24"/>
@@ -2372,7 +2369,7 @@
       <c r="C88" s="31">
         <v>45406</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="44" t="s">
         <v>98</v>
       </c>
       <c r="E88" s="24"/>
@@ -2385,7 +2382,7 @@
       <c r="C89" s="31">
         <v>45407</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="44" t="s">
         <v>99</v>
       </c>
       <c r="E89" s="24"/>
@@ -2398,7 +2395,7 @@
       <c r="C90" s="31">
         <v>45408</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="44" t="s">
         <v>100</v>
       </c>
       <c r="E90" s="24"/>
@@ -2411,21 +2408,21 @@
       <c r="C91" s="31">
         <v>45409</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="44" t="s">
         <v>101</v>
       </c>
       <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="31">
         <v>45410</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>102</v>
+      <c r="D92" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="E92" s="24"/>
     </row>
@@ -2437,23 +2434,368 @@
       <c r="C93" s="31">
         <v>45411</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>103</v>
+      <c r="D93" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="31">
         <v>45412</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>104</v>
+      <c r="D94" s="44" t="s">
+        <v>103</v>
       </c>
       <c r="E94" s="24"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="41"/>
+      <c r="B95" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="31">
+        <v>45413</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="41"/>
+      <c r="B96" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="31">
+        <v>45414</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="24"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="24"/>
+      <c r="B97" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="31">
+        <v>45415</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="24"/>
+      <c r="B98" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="31">
+        <v>45416</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="24"/>
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="31">
+        <v>45417</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+      <c r="B100" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="31">
+        <v>45418</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
+      <c r="B101" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="31">
+        <v>45419</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="24"/>
+      <c r="B102" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="31">
+        <v>45420</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="24"/>
+      <c r="B103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="31">
+        <v>45421</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="24"/>
+      <c r="B104" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="31">
+        <v>45422</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="24"/>
+      <c r="B105" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="31">
+        <v>45423</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="24"/>
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" s="31">
+        <v>45424</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
+      <c r="B107" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="31">
+        <v>45425</v>
+      </c>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="24"/>
+      <c r="B108" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="31">
+        <v>45426</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="24"/>
+      <c r="B109" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="31">
+        <v>45427</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="24"/>
+      <c r="B110" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="31">
+        <v>45428</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="24"/>
+      <c r="B111" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="31">
+        <v>45429</v>
+      </c>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="24"/>
+      <c r="B112" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="31">
+        <v>45430</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="31">
+        <v>45431</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="24"/>
+      <c r="B114" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="31">
+        <v>45432</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="31">
+        <v>45433</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="24"/>
+      <c r="B116" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="31">
+        <v>45434</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="24"/>
+      <c r="B117" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="31">
+        <v>45435</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="24"/>
+      <c r="B118" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="31">
+        <v>45436</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="24"/>
+      <c r="B119" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="31">
+        <v>45437</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="31">
+        <v>45438</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="24"/>
+      <c r="B121" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="31">
+        <v>45439</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="31">
+        <v>45440</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="31">
+        <v>45441</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="31">
+        <v>45442</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="24"/>
+      <c r="B125" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="31">
+        <v>45443</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="107">
   <si>
     <t>Class Status</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>React Capstone Project Part 7</t>
+  </si>
+  <si>
+    <t>fetch data from api using fetch() &amp; .then() methods</t>
+  </si>
+  <si>
+    <t>moment, react-router-dom packages</t>
+  </si>
+  <si>
+    <t>styling and data rendering</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1038,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,7 +2024,9 @@
       <c r="D61" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="24"/>
+      <c r="E61" s="24" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
@@ -2164,7 +2175,9 @@
       <c r="D72" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E72" s="24"/>
+      <c r="E72" s="24" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
@@ -2177,7 +2190,9 @@
       <c r="D73" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="24"/>
+      <c r="E73" s="24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
   <si>
     <t>Class Status</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>styling and data rendering</t>
+  </si>
+  <si>
+    <t>React Module Test</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2494,102 +2497,120 @@
       <c r="E96" s="24"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C97" s="31">
         <v>45415</v>
       </c>
-      <c r="D97" s="24"/>
+      <c r="D97" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="24"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C98" s="31">
         <v>45416</v>
       </c>
-      <c r="D98" s="24"/>
+      <c r="D98" s="44" t="s">
+        <v>107</v>
+      </c>
       <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="24"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C99" s="31">
         <v>45417</v>
       </c>
-      <c r="D99" s="24"/>
+      <c r="D99" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="31">
         <v>45418</v>
       </c>
-      <c r="D100" s="24"/>
+      <c r="D100" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="31">
         <v>45419</v>
       </c>
-      <c r="D101" s="24"/>
+      <c r="D101" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E101" s="24"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="24"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="31">
         <v>45420</v>
       </c>
-      <c r="D102" s="24"/>
+      <c r="D102" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="24"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="31">
         <v>45421</v>
       </c>
-      <c r="D103" s="24"/>
+      <c r="D103" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="24"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="31">
         <v>45422</v>
       </c>
-      <c r="D104" s="24"/>
+      <c r="D104" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="24"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C105" s="31">
         <v>45423</v>
       </c>
-      <c r="D105" s="24"/>
+      <c r="D105" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E105" s="24"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Mean-Stack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Main\Cuvette-Mean-Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="108">
   <si>
     <t>Class Status</t>
   </si>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2614,14 +2614,16 @@
       <c r="E105" s="24"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
+      <c r="A106" s="41"/>
       <c r="B106" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C106" s="31">
         <v>45424</v>
       </c>
-      <c r="D106" s="24"/>
+      <c r="D106" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E106" s="24"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="109">
   <si>
     <t>Class Status</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>React Module Test</t>
+  </si>
+  <si>
+    <t>Node</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -734,6 +743,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,8 +1051,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,11 +1251,13 @@
       <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -614,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -744,6 +744,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1054,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1929,7 @@
       <c r="C53" s="31">
         <v>45371</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E53" s="30" t="s">
@@ -1956,7 +1959,7 @@
       <c r="C55" s="31">
         <v>45373</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="47" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="24"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="109">
   <si>
     <t>Class Status</t>
   </si>
@@ -1054,8 +1054,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2664,14 +2664,16 @@
       <c r="E108" s="24"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="31">
         <v>45427</v>
       </c>
-      <c r="D109" s="24"/>
+      <c r="D109" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t>Class Status</t>
   </si>
@@ -1052,10 +1052,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,70 +2787,17 @@
       <c r="E119" s="24"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="24"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="31">
         <v>45438</v>
       </c>
-      <c r="D120" s="24"/>
+      <c r="D120" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E120" s="24"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="24"/>
-      <c r="B121" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="31">
-        <v>45439</v>
-      </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="24"/>
-      <c r="B122" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="31">
-        <v>45440</v>
-      </c>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
-      <c r="B123" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="31">
-        <v>45441</v>
-      </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="24"/>
-      <c r="B124" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="31">
-        <v>45442</v>
-      </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
-      <c r="B125" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" s="31">
-        <v>45443</v>
-      </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
   <si>
     <t>Class Status</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Node</t>
+  </si>
+  <si>
+    <t>Authentication and Authorization</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1055,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,6 +2802,19 @@
       </c>
       <c r="E120" s="24"/>
     </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="37"/>
+      <c r="B121" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="31">
+        <v>45439</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E121" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="110">
   <si>
     <t>Class Status</t>
   </si>
@@ -1055,10 +1055,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2815,6 +2815,28 @@
       </c>
       <c r="E121" s="24"/>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="31">
+        <v>45440</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="24"/>
+      <c r="B123" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="31">
+        <v>45441</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="110">
   <si>
     <t>Class Status</t>
   </si>
@@ -1055,10 +1055,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2837,6 +2837,28 @@
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
     </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="24"/>
+      <c r="B124" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="31">
+        <v>45442</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="24"/>
+      <c r="B125" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" s="31">
+        <v>45443</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="119">
   <si>
     <t>Class Status</t>
   </si>
@@ -374,6 +374,33 @@
   </si>
   <si>
     <t>Authentication and Authorization</t>
+  </si>
+  <si>
+    <t>Express Server with React FE</t>
+  </si>
+  <si>
+    <t>Introduction to Node and NPM</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>EJS View engine, Routing params</t>
+  </si>
+  <si>
+    <t>Express Contd</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>MongoDB intro, Mongo Atlas, Mongoose intro</t>
+  </si>
+  <si>
+    <t>Mongoose - schemas, methods, REST API</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -617,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -748,6 +775,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1057,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2645,25 +2675,29 @@
       <c r="E106" s="24"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="31">
         <v>45425</v>
       </c>
-      <c r="D107" s="24"/>
+      <c r="D107" s="48" t="s">
+        <v>111</v>
+      </c>
       <c r="E107" s="24"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="24"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="31">
         <v>45426</v>
       </c>
-      <c r="D108" s="24"/>
+      <c r="D108" s="48" t="s">
+        <v>112</v>
+      </c>
       <c r="E108" s="24"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2680,113 +2714,133 @@
       <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="24"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C110" s="31">
         <v>45428</v>
       </c>
-      <c r="D110" s="24"/>
+      <c r="D110" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="E110" s="24"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="24"/>
+      <c r="A111" s="37"/>
       <c r="B111" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C111" s="31">
         <v>45429</v>
       </c>
-      <c r="D111" s="24"/>
+      <c r="D111" s="48" t="s">
+        <v>113</v>
+      </c>
       <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="31">
         <v>45430</v>
       </c>
-      <c r="D112" s="24"/>
+      <c r="D112" s="48" t="s">
+        <v>115</v>
+      </c>
       <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="24"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="31">
         <v>45431</v>
       </c>
-      <c r="D113" s="24"/>
+      <c r="D113" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E113" s="24"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
+      <c r="A114" s="37"/>
       <c r="B114" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="31">
         <v>45432</v>
       </c>
-      <c r="D114" s="24"/>
+      <c r="D114" s="48" t="s">
+        <v>116</v>
+      </c>
       <c r="E114" s="24"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="31">
         <v>45433</v>
       </c>
-      <c r="D115" s="24"/>
+      <c r="D115" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E115" s="24"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="24"/>
+      <c r="A116" s="37"/>
       <c r="B116" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="31">
         <v>45434</v>
       </c>
-      <c r="D116" s="24"/>
+      <c r="D116" s="48" t="s">
+        <v>117</v>
+      </c>
       <c r="E116" s="24"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="24"/>
+      <c r="A117" s="43"/>
       <c r="B117" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C117" s="31">
         <v>45435</v>
       </c>
-      <c r="D117" s="24"/>
+      <c r="D117" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="E117" s="24"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="24"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="31">
         <v>45436</v>
       </c>
-      <c r="D118" s="24"/>
+      <c r="D118" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E118" s="24"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="24"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C119" s="31">
         <v>45437</v>
       </c>
-      <c r="D119" s="24"/>
+      <c r="D119" s="48" t="s">
+        <v>118</v>
+      </c>
       <c r="E119" s="24"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2810,53 +2864,61 @@
       <c r="C121" s="31">
         <v>45439</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>109</v>
+      <c r="D121" s="48" t="s">
+        <v>110</v>
       </c>
       <c r="E121" s="24"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="24"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="31">
         <v>45440</v>
       </c>
-      <c r="D122" s="24"/>
+      <c r="D122" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E122" s="24"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
+      <c r="A123" s="37"/>
       <c r="B123" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="31">
         <v>45441</v>
       </c>
-      <c r="D123" s="24"/>
+      <c r="D123" s="48" t="s">
+        <v>109</v>
+      </c>
       <c r="E123" s="24"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="24"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C124" s="31">
         <v>45442</v>
       </c>
-      <c r="D124" s="24"/>
+      <c r="D124" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E124" s="24"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="31">
         <v>45443</v>
       </c>
-      <c r="D125" s="24"/>
+      <c r="D125" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E125" s="24"/>
     </row>
   </sheetData>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
   <si>
     <t>Class Status</t>
   </si>
@@ -1085,10 +1085,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2921,6 +2921,19 @@
       </c>
       <c r="E125" s="24"/>
     </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="41"/>
+      <c r="B126" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="31">
+        <v>45444</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
   <si>
     <t>Class Status</t>
   </si>
@@ -1085,10 +1085,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,6 +2934,19 @@
       </c>
       <c r="E126" s="24"/>
     </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="41"/>
+      <c r="B127" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="31">
+        <v>45445</v>
+      </c>
+      <c r="D127" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Cuvette MERN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cuvette MERN'!$A$1:$F$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cuvette MERN'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="52"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
   <si>
     <t>Class Status</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 1</t>
+  </si>
+  <si>
+    <t>Create server template, Install express, mongoose, dotenv packages, Connect app to MongoDB</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1091,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1103,7 @@
     <col min="2" max="2" width="10.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -2947,7 +2953,23 @@
       </c>
       <c r="E127" s="24"/>
     </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="37"/>
+      <c r="B128" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="31">
+        <v>45446</v>
+      </c>
+      <c r="D128" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="122">
   <si>
     <t>Class Status</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>Create server template, Install express, mongoose, dotenv packages, Connect app to MongoDB</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 2</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2968,6 +2971,19 @@
         <v>120</v>
       </c>
     </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="37"/>
+      <c r="B129" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="31">
+        <v>45447</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="123">
   <si>
     <t>Class Status</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>Backend Capstone Project Part 2</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 3</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1097,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2984,6 +2987,19 @@
       </c>
       <c r="E129" s="24"/>
     </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="37"/>
+      <c r="B130" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="31">
+        <v>45448</v>
+      </c>
+      <c r="D130" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E130" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="124">
   <si>
     <t>Class Status</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Backend Capstone Project Part 3</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 4</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1100,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,6 +3003,19 @@
       </c>
       <c r="E130" s="24"/>
     </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="37"/>
+      <c r="B131" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="31">
+        <v>45449</v>
+      </c>
+      <c r="D131" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E131" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Main\Cuvette-Mean-Stack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Mean-Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="125">
   <si>
     <t>Class Status</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Backend Capstone Project Part 4</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 5</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1103,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,6 +3019,19 @@
       </c>
       <c r="E131" s="24"/>
     </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="37"/>
+      <c r="B132" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="31">
+        <v>45450</v>
+      </c>
+      <c r="D132" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Mean-Stack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Main\Cuvette-Mean-Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
   <si>
     <t>Class Status</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Backend Capstone Project Part 5</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 6</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3032,6 +3035,19 @@
       </c>
       <c r="E132" s="24"/>
     </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="37"/>
+      <c r="B133" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="31">
+        <v>45451</v>
+      </c>
+      <c r="D133" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E133" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
   <si>
     <t>Class Status</t>
   </si>
@@ -1106,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,6 +3048,19 @@
       </c>
       <c r="E133" s="24"/>
     </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="31">
+        <v>45452</v>
+      </c>
+      <c r="D134" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="126">
   <si>
     <t>Class Status</t>
   </si>
@@ -1106,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3061,6 +3061,32 @@
       </c>
       <c r="E134" s="24"/>
     </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="31">
+        <v>45453</v>
+      </c>
+      <c r="D135" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="24"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="31">
+        <v>45454</v>
+      </c>
+      <c r="D136" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="126">
   <si>
     <t>Class Status</t>
   </si>
@@ -1106,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3087,6 +3087,61 @@
       </c>
       <c r="E136" s="24"/>
     </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="24"/>
+      <c r="B137" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="31">
+        <v>45455</v>
+      </c>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="24"/>
+      <c r="B138" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="31">
+        <v>45456</v>
+      </c>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="24"/>
+      <c r="B139" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="31">
+        <v>45457</v>
+      </c>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="24"/>
+      <c r="B140" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="31">
+        <v>45458</v>
+      </c>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="31">
+        <v>45459</v>
+      </c>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
   <si>
     <t>Class Status</t>
   </si>
@@ -1106,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3142,6 +3142,39 @@
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="24"/>
+      <c r="B142" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="31">
+        <v>45460</v>
+      </c>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="24"/>
+      <c r="B143" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="31">
+        <v>45461</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="31">
+        <v>45462</v>
+      </c>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="126">
   <si>
     <t>Class Status</t>
   </si>
@@ -1106,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,6 +3175,50 @@
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
     </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="24"/>
+      <c r="B145" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="31">
+        <v>45463</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="31">
+        <v>45464</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="31">
+        <v>45465</v>
+      </c>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="24"/>
+      <c r="B148" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="31">
+        <v>45466</v>
+      </c>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="133">
   <si>
     <t>Class Status</t>
   </si>
@@ -422,6 +422,27 @@
   </si>
   <si>
     <t>Backend Capstone Project Part 6</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 7</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 8</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 9</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 10</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 11</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 12</t>
+  </si>
+  <si>
+    <t>Backend Capstone Project Part 13</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1127,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3088,102 +3109,120 @@
       <c r="E136" s="24"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="24"/>
+      <c r="A137" s="37"/>
       <c r="B137" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="31">
         <v>45455</v>
       </c>
-      <c r="D137" s="24"/>
+      <c r="D137" s="48" t="s">
+        <v>126</v>
+      </c>
       <c r="E137" s="24"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="24"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C138" s="31">
         <v>45456</v>
       </c>
-      <c r="D138" s="24"/>
+      <c r="D138" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E138" s="24"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="24"/>
+      <c r="A139" s="37"/>
       <c r="B139" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C139" s="31">
         <v>45457</v>
       </c>
-      <c r="D139" s="24"/>
+      <c r="D139" s="48" t="s">
+        <v>127</v>
+      </c>
       <c r="E139" s="24"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="24"/>
+      <c r="A140" s="37"/>
       <c r="B140" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C140" s="31">
         <v>45458</v>
       </c>
-      <c r="D140" s="24"/>
+      <c r="D140" s="48" t="s">
+        <v>128</v>
+      </c>
       <c r="E140" s="24"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="24"/>
+      <c r="A141" s="41"/>
       <c r="B141" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C141" s="31">
         <v>45459</v>
       </c>
-      <c r="D141" s="24"/>
+      <c r="D141" s="42" t="s">
+        <v>14</v>
+      </c>
       <c r="E141" s="24"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="24"/>
+      <c r="A142" s="37"/>
       <c r="B142" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C142" s="31">
         <v>45460</v>
       </c>
-      <c r="D142" s="24"/>
+      <c r="D142" s="48" t="s">
+        <v>129</v>
+      </c>
       <c r="E142" s="24"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="24"/>
+      <c r="A143" s="37"/>
       <c r="B143" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="31">
         <v>45461</v>
       </c>
-      <c r="D143" s="24"/>
+      <c r="D143" s="48" t="s">
+        <v>130</v>
+      </c>
       <c r="E143" s="24"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="24"/>
+      <c r="A144" s="37"/>
       <c r="B144" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="31">
         <v>45462</v>
       </c>
-      <c r="D144" s="24"/>
+      <c r="D144" s="48" t="s">
+        <v>131</v>
+      </c>
       <c r="E144" s="24"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="24"/>
+      <c r="A145" s="37"/>
       <c r="B145" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C145" s="31">
         <v>45463</v>
       </c>
-      <c r="D145" s="24"/>
+      <c r="D145" s="48" t="s">
+        <v>132</v>
+      </c>
       <c r="E145" s="24"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3218,6 +3257,17 @@
       </c>
       <c r="D148" s="24"/>
       <c r="E148" s="24"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="24"/>
+      <c r="B149" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="31">
+        <v>45467</v>
+      </c>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette-Main\Cuvette-Mean-Stack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NewCourse\Cuvette\Cuvette-Mean-Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="133">
   <si>
     <t>Class Status</t>
   </si>
@@ -1127,10 +1127,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,6 +3269,28 @@
       <c r="D149" s="24"/>
       <c r="E149" s="24"/>
     </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="31">
+        <v>45468</v>
+      </c>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="24"/>
+      <c r="B151" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="31">
+        <v>45469</v>
+      </c>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="133">
   <si>
     <t>Class Status</t>
   </si>
@@ -1127,10 +1127,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3291,6 +3291,28 @@
       <c r="D151" s="24"/>
       <c r="E151" s="24"/>
     </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="31">
+        <v>45470</v>
+      </c>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="24"/>
+      <c r="B153" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="31">
+        <v>45471</v>
+      </c>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="133">
   <si>
     <t>Class Status</t>
   </si>
@@ -1127,10 +1127,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3313,6 +3313,17 @@
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
     </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="24"/>
+      <c r="B154" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="31">
+        <v>45472</v>
+      </c>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="133">
   <si>
     <t>Class Status</t>
   </si>
@@ -1127,10 +1127,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3324,6 +3324,17 @@
       <c r="D154" s="24"/>
       <c r="E154" s="24"/>
     </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="24"/>
+      <c r="B155" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="31">
+        <v>45473</v>
+      </c>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="134">
   <si>
     <t>Class Status</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Backend Capstone Project Part 13</t>
+  </si>
+  <si>
+    <t>Created Controllers for Delete, Update Job and get filtered Jobs</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1132,8 @@
   </sheetPr>
   <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3067,7 +3070,9 @@
       <c r="D133" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E133" s="24"/>
+      <c r="E133" s="24" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="134">
   <si>
     <t>Class Status</t>
   </si>
@@ -1130,10 +1130,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3340,6 +3340,17 @@
       <c r="D155" s="24"/>
       <c r="E155" s="24"/>
     </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="24"/>
+      <c r="B156" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="31">
+        <v>45474</v>
+      </c>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="134">
   <si>
     <t>Class Status</t>
   </si>
@@ -1130,10 +1130,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3351,6 +3351,17 @@
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
     </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="24"/>
+      <c r="B157" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="31">
+        <v>45475</v>
+      </c>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
